--- a/cell_note.xlsx
+++ b/cell_note.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u234830_bcm_edu/Documents/Documents/GitHub/lsfm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F24574C2-153F-4F13-A5B3-759210B3A3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B839F34D-2716-4080-8ACF-53AAE12A3F25}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{F24574C2-153F-4F13-A5B3-759210B3A3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4B44A5D-3F23-430A-890C-134B64CB6EE8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{273317B4-7EBC-4D5D-892E-191ED79E904D}"/>
+    <workbookView xWindow="7455" yWindow="4635" windowWidth="28800" windowHeight="15435" xr2:uid="{273317B4-7EBC-4D5D-892E-191ED79E904D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
   <si>
     <t>pure tone</t>
   </si>
@@ -89,6 +89,111 @@
   </si>
   <si>
     <t>26</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>20220616</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>20220617</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>20210611</t>
+  </si>
+  <si>
+    <t>20210614</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>82</t>
   </si>
 </sst>
 </file>
@@ -441,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03790E98-9722-442C-8230-5F938E9E4E6A}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +559,7 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,133 +573,438 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>20210622</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>6034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>15213.390439999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>20210622</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>6976.5553479999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>6865.092987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>5827.7767309999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>4914.4894489999997</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>10940.05034</v>
+      </c>
+      <c r="J9">
+        <v>6034</v>
+      </c>
+      <c r="K9">
+        <v>24000</v>
+      </c>
+      <c r="L9">
+        <v>15213.390439999999</v>
+      </c>
+      <c r="M9">
+        <v>6976.5553479999999</v>
+      </c>
+      <c r="N9">
+        <v>6865.092987</v>
+      </c>
+      <c r="O9">
+        <v>5827.7767309999999</v>
+      </c>
+      <c r="P9">
+        <v>4914.4894489999997</v>
+      </c>
+      <c r="Q9">
+        <v>10940.05034</v>
+      </c>
+      <c r="R9">
+        <v>13985.259910000001</v>
+      </c>
+      <c r="S9">
+        <v>5864.7227359999997</v>
+      </c>
+      <c r="T9">
+        <v>5864.7227359999997</v>
+      </c>
+      <c r="U9">
+        <v>5864.7227359999997</v>
+      </c>
+      <c r="V9">
+        <v>15594.02025</v>
+      </c>
+      <c r="W9">
+        <v>15594.02025</v>
+      </c>
+      <c r="X9">
+        <v>15594.02025</v>
+      </c>
+      <c r="Y9">
+        <v>16965.526519999999</v>
+      </c>
+      <c r="Z9">
+        <v>8987.8227279999992</v>
+      </c>
+      <c r="AA9">
+        <v>17515.579010000001</v>
+      </c>
+      <c r="AB9"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>13985.259910000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>9446.1221060000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12">
+        <v>5864.7227359999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13">
+        <v>5864.7227359999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14">
+        <v>5864.7227359999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15">
+        <v>15594.02025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>15594.02025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17">
+        <v>15594.02025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18">
+        <v>16965.526519999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19">
+        <v>8987.8227279999992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20">
+        <v>17515.579010000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21">
+        <v>17515.579010000001</v>
       </c>
     </row>
   </sheetData>
